--- a/Table/Table_xls/d道具表/s属性道具配置表.xlsx
+++ b/Table/Table_xls/d道具表/s属性道具配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 1为洗点
 2为加点</t>
         </r>
@@ -41,11 +40,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 重置属性，负为重置点数为潜力，正为增加点数</t>
         </r>
       </text>
@@ -55,11 +53,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 作者:
 重置属性，负为重置点数为潜力，正为增加点数</t>
         </r>
@@ -80,11 +77,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不绑定
 1-绑定</t>
         </r>
@@ -95,11 +91,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-关联随机：后续“物品1类”~“物品8类”所有物品放在一起随即一次，只可获得一个种类。
 1-不关联随机：后续“物品1类”~“物品8类”每个类别各自随机，可同时获得多个种类。</t>
         </r>
@@ -110,11 +105,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 公告编号：没有时填0
 公告格式为4参数：
 参数1-角色名；
@@ -130,11 +124,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不发
 1-发</t>
         </r>
@@ -145,11 +138,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 用于控制重要物品的总产出。
 填写方式：物品类型库id@总数量，多个物品用分号隔开。</t>
         </r>
@@ -160,11 +152,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-永不清除
 1-每日0点清除
 2-每周一0点清除
@@ -177,11 +168,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0-不打
 1-打
 奖励ID打元宝标记则该奖励下所有物品均有元宝标记</t>
@@ -193,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>道具ID</t>
   </si>
@@ -701,12 +691,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,7 +718,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,14 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -766,7 +756,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,17 +785,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,23 +825,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,33 +861,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -928,7 +923,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,13 +965,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,85 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,43 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,15 +1090,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1122,17 +1108,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,15 +1128,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,6 +1158,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1201,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1432,6 +1427,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1716,12 +1716,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1730,7 +1729,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1740,7 +1739,7 @@
     <col min="8" max="16384" width="7.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" customFormat="1" ht="14.4" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1782,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
@@ -1793,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -1804,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
@@ -1815,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -1826,19 +1825,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
@@ -1858,7 +1857,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -51412,7 +51411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -51420,7 +51419,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
